--- a/Excel-DB/LapinHomepageDB.xlsx
+++ b/Excel-DB/LapinHomepageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Meharg\Documents\Repositories\Web\lapin-cb\Excel-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F925B-48DF-44CB-B433-BAF22503E885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952DAAE1-CDED-49AB-8EDF-74670CE733BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E71A48F6-40D9-406C-AFE2-B445AE31C0AD}"/>
+    <workbookView xWindow="3285" yWindow="855" windowWidth="25185" windowHeight="13935" xr2:uid="{E71A48F6-40D9-406C-AFE2-B445AE31C0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Response Data" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="DB_NAME">'Response Data'!$A$4</definedName>
     <definedName name="ORIGIN_ALIAS">Aliases!$A$3</definedName>
     <definedName name="ORIGIN_CONN">Connections!$A$2</definedName>
-    <definedName name="ORIGIN_DATA">'Response Data'!$A$9</definedName>
+    <definedName name="ORIGIN_DATA">'Response Data'!$A$11</definedName>
     <definedName name="ORIGIN_DEF">Defaults!$A$3</definedName>
+    <definedName name="PLACEHOLDER_1">'Response Data'!$B$8</definedName>
+    <definedName name="PLACEHOLDER_2">'Response Data'!$D$8</definedName>
     <definedName name="STARTUP_MSG">'Response Data'!$A$6</definedName>
     <definedName name="WINDOW_TITLE">'Response Data'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
   <si>
     <t>Default Conversational Database</t>
   </si>
@@ -904,6 +906,21 @@
   </si>
   <si>
     <t>執筆</t>
+  </si>
+  <si>
+    <t>Text placeholder</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>Afterwards</t>
+  </si>
+  <si>
+    <t>ここで質問を記入してください</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C711C4-F497-477F-BE97-0DB07361B6EC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,516 +1443,527 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-      <c r="I10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>126</v>
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="7"/>
       <c r="G42" s="6"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,20 +2286,30 @@
       <c r="G107" s="6"/>
       <c r="H107" s="3"/>
     </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="7"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="7"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G41" r:id="rId1" xr:uid="{C1ACCDAF-3378-4EF2-91DB-91C4633DC5AA}"/>
+    <hyperlink ref="G43" r:id="rId1" xr:uid="{C1ACCDAF-3378-4EF2-91DB-91C4633DC5AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50A18CB3-9527-4F1D-9DD4-3F09294B3379}">
           <x14:formula1>
             <xm:f>Connections!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D111 B9:B85</xm:sqref>
+          <xm:sqref>D11:D113 B11:B87</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
